--- a/out/statistics.xlsx
+++ b/out/statistics.xlsx
@@ -29,6 +29,18 @@
     <t>Наименования ВУЗов</t>
   </si>
   <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений</t>
+  </si>
+  <si>
+    <t>LINGUISTICS</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет</t>
+  </si>
+  <si>
     <t>MEDICINE</t>
   </si>
   <si>
@@ -39,18 +51,6 @@
   </si>
   <si>
     <t>Московский Выдуманный Университет; Московский Придуманный Институт</t>
-  </si>
-  <si>
-    <t>LINGUISTICS</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет</t>
-  </si>
-  <si>
-    <t>MATHEMATICS</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений</t>
   </si>
 </sst>
 </file>
@@ -139,13 +139,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.3</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
         <v>1.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -156,13 +156,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.7</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
@@ -173,13 +173,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>4.3</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
@@ -190,13 +190,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.7</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>12</v>

--- a/out/statistics.xlsx
+++ b/out/statistics.xlsx
@@ -29,28 +29,28 @@
     <t>Наименования ВУЗов</t>
   </si>
   <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>Московский Выдуманный Университет; Московский Придуманный Институт</t>
+  </si>
+  <si>
     <t>MATHEMATICS</t>
   </si>
   <si>
     <t>Казанский Университет Вычислений</t>
   </si>
   <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет; Тамбовский Университет Медицины; Самарский Медицинский Институт</t>
+  </si>
+  <si>
     <t>LINGUISTICS</t>
   </si>
   <si>
     <t>Воронежский Литературно-Переводческий Университет</t>
-  </si>
-  <si>
-    <t>MEDICINE</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет; Тамбовский Университет Медицины; Самарский Медицинский Институт</t>
-  </si>
-  <si>
-    <t>PHYSICS</t>
-  </si>
-  <si>
-    <t>Московский Выдуманный Университет; Московский Придуманный Институт</t>
   </si>
 </sst>
 </file>
@@ -139,13 +139,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.0</v>
+        <v>4.7</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -190,13 +190,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>4.7</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>12</v>

--- a/out/statistics.xlsx
+++ b/out/statistics.xlsx
@@ -29,28 +29,28 @@
     <t>Наименования ВУЗов</t>
   </si>
   <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет; Тамбовский Университет Медицины; Самарский Медицинский Институт</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений</t>
+  </si>
+  <si>
+    <t>LINGUISTICS</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет</t>
+  </si>
+  <si>
     <t>PHYSICS</t>
   </si>
   <si>
     <t>Московский Выдуманный Университет; Московский Придуманный Институт</t>
-  </si>
-  <si>
-    <t>MATHEMATICS</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений</t>
-  </si>
-  <si>
-    <t>MEDICINE</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет; Тамбовский Университет Медицины; Самарский Медицинский Институт</t>
-  </si>
-  <si>
-    <t>LINGUISTICS</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет</t>
   </si>
 </sst>
 </file>
@@ -139,13 +139,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -173,13 +173,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>4.3</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
         <v>1.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>3.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
@@ -190,13 +190,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.7</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>12</v>
